--- a/python_Geo.xlsx
+++ b/python_Geo.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>basics</t>
   </si>
@@ -96,6 +95,12 @@
   </si>
   <si>
     <t>funcs</t>
+  </si>
+  <si>
+    <t>Kafka</t>
+  </si>
+  <si>
+    <t>Getting started with Apache Kafka in Python</t>
   </si>
 </sst>
 </file>
@@ -742,7 +747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
@@ -809,16 +814,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -889,6 +894,14 @@
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -900,6 +913,7 @@
     <hyperlink ref="B9" r:id="rId5"/>
     <hyperlink ref="B4" r:id="rId6"/>
     <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B13" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
